--- a/code/data/WITS-Country-Timeseries.xlsx
+++ b/code/data/WITS-Country-Timeseries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satoshan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satoshan/GitHub/NKPC_HSA_MCMC/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C72BD1-C4AD-374A-80CF-2AEB7A057260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD4317-700C-7A41-8A67-9ADD556423C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="760" windowWidth="29760" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Country-Timeseries" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1104,273 +1117,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1991</v>
       </c>
       <c r="B2">
         <v>0.12066567931570348</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <f>1/B2</f>
+        <v>8.2873606287306547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1992</v>
       </c>
       <c r="B3">
         <v>9.7599806105797215E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C33" si="0">1/B3</f>
+        <v>10.245921994107345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1993</v>
       </c>
       <c r="B4">
         <v>8.7232658853042488E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>11.463596468894313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1994</v>
       </c>
       <c r="B5">
         <v>7.6783402359796638E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>13.023647940399089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1995</v>
       </c>
       <c r="B6">
         <v>6.8332681322625405E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>14.63428597626087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1996</v>
       </c>
       <c r="B7">
         <v>6.6635636323365624E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>15.006985078483485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1997</v>
       </c>
       <c r="B8">
         <v>6.6499195541120451E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>15.037775898832338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1998</v>
       </c>
       <c r="B9">
         <v>7.0024920552930928E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>14.280630268535798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1999</v>
       </c>
       <c r="B10">
         <v>7.5799046976752563E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>13.192778008234038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2000</v>
       </c>
       <c r="B11">
         <v>7.6018877306609708E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>13.15462731666851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2001</v>
       </c>
       <c r="B12">
         <v>7.2339463542078472E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>13.823713240813836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2002</v>
       </c>
       <c r="B13">
         <v>7.213944258644657E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>13.862042235794572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2003</v>
       </c>
       <c r="B14">
         <v>7.1133723469574986E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>14.058029739265873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2004</v>
       </c>
       <c r="B15">
         <v>6.7991605773103148E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>14.707697937553208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2005</v>
       </c>
       <c r="B16">
         <v>6.7742914350012895E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>14.761691456514813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2006</v>
       </c>
       <c r="B17">
         <v>6.4419552534962399E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>15.523237288201752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2007</v>
       </c>
       <c r="B18">
         <v>5.9941581852188883E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>16.682909744789843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2008</v>
       </c>
       <c r="B19">
         <v>5.3672713054518803E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>18.631441249937115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2009</v>
       </c>
       <c r="B20">
         <v>5.2073092518276971E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>19.203775916496859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2010</v>
       </c>
       <c r="B21">
         <v>5.5720245864756303E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>17.946798053030694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2011</v>
       </c>
       <c r="B22">
         <v>5.4985102662897495E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>18.186744255635876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2012</v>
       </c>
       <c r="B23">
         <v>5.5444875227355479E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>18.035932011740165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2013</v>
       </c>
       <c r="B24">
         <v>5.8288335807696247E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>17.156091113995444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2014</v>
       </c>
       <c r="B25">
         <v>6.0512789212304803E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>16.525432276664215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2015</v>
       </c>
       <c r="B26">
         <v>5.9870937772002308E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>16.702594567804383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2016</v>
       </c>
       <c r="B27">
         <v>5.8315642547000418E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>17.148057644979804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2017</v>
       </c>
       <c r="B28">
         <v>5.8043577988292655E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>17.228434818434163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2018</v>
       </c>
       <c r="B29">
         <v>5.6731185997903728E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>17.62698914908902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2019</v>
       </c>
       <c r="B30">
         <v>5.3297295529333127E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>18.762678107177727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2020</v>
       </c>
       <c r="B31">
         <v>5.39305794217411E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>18.542355945778485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2021</v>
       </c>
       <c r="B32">
         <v>5.5709757295193944E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>17.950176926839163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2022</v>
       </c>
       <c r="B33">
         <v>5.3494973226629862E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>18.693345181490788</v>
       </c>
     </row>
   </sheetData>
